--- a/src/risk_results.xlsx
+++ b/src/risk_results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhaachen-my.sharepoint.com/personal/ck1082s_ad_fh-aachen_de/Documents/Dokumente/SCAN/portfolio/VaR-ES-for-Electricity-Trading/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDC5E3CCB2BB0E8802602EE7C24EB49B53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A6441A-78C1-4565-97F9-72A331CEF8A2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -229,11 +235,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,17 +301,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +357,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -411,9 +426,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,14 +602,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L32" sqref="L32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="40" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="56" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="71" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,219 +848,1079 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>46024.36897818327</v>
+        <v>46024.454624421298</v>
       </c>
       <c r="B2">
-        <v>0.0005109872442147993</v>
+        <v>6.6881639794375404E-4</v>
       </c>
       <c r="C2">
-        <v>0.003101325894730532</v>
+        <v>2.9097837471755749E-3</v>
       </c>
       <c r="D2">
-        <v>0.00689991616015695</v>
+        <v>6.4203455240689732E-3</v>
       </c>
       <c r="E2">
-        <v>0.007963036939997347</v>
+        <v>7.6132421687181541E-3</v>
       </c>
       <c r="F2">
-        <v>-0.00772575014612898</v>
+        <v>-7.4379856321042451E-3</v>
       </c>
       <c r="G2">
-        <v>0.007754710632347694</v>
+        <v>7.0863806231596937E-3</v>
       </c>
       <c r="H2">
-        <v>0.006826140962827579</v>
+        <v>6.1777820839297431E-3</v>
       </c>
       <c r="I2">
-        <v>0.007900648297733324</v>
+        <v>7.1575512593298066E-3</v>
       </c>
       <c r="J2">
-        <v>1.010778323083701E-05</v>
+        <v>2.0229133138318759E-5</v>
       </c>
       <c r="K2">
-        <v>0.9974633106262223</v>
+        <v>0.99641138197973089</v>
       </c>
       <c r="L2">
-        <v>0.2024427343495045</v>
+        <v>0.1014419278001957</v>
       </c>
       <c r="M2">
-        <v>0.6527563240568667</v>
+        <v>0.7501060782683735</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="P2">
-        <v>0.003101325894730532</v>
+        <v>2.9097837471755749E-3</v>
       </c>
       <c r="Q2">
-        <v>0.006202651789461063</v>
+        <v>5.8195674943511506E-3</v>
       </c>
       <c r="R2">
-        <v>0.003101325894730532</v>
+        <v>2.9097837471755749E-3</v>
       </c>
       <c r="S2">
-        <v>0.009368492123075134</v>
+        <v>9.2210152628536771E-3</v>
       </c>
       <c r="T2">
-        <v>0.02187568726310173</v>
+        <v>4.6608886787488868E-2</v>
       </c>
       <c r="U2">
-        <v>0.02015398790145972</v>
+        <v>1.1386325536098311E-2</v>
       </c>
       <c r="V2">
-        <v>0.009137030066853633</v>
+        <v>1.1543797346427661E-2</v>
       </c>
       <c r="W2">
-        <v>0.02561773405127492</v>
+        <v>3.2068795902842902E-2</v>
       </c>
       <c r="X2">
-        <v>0.03249430904921539</v>
+        <v>1.323432909910487E-2</v>
       </c>
       <c r="Y2">
-        <v>0.009886884109440561</v>
+        <v>1.6583473149152581E-2</v>
       </c>
       <c r="Z2">
-        <v>0.02501116168040352</v>
+        <v>4.4942630253139139E-2</v>
       </c>
       <c r="AA2">
-        <v>0.02224965938545978</v>
+        <v>1.769514936707876E-2</v>
       </c>
       <c r="AB2">
-        <v>0.01403731116664095</v>
+        <v>1.272953127767971E-2</v>
       </c>
       <c r="AC2">
-        <v>0.02325276722437104</v>
+        <v>1.349305481473259E-2</v>
       </c>
       <c r="AD2">
-        <v>0.01024032925219013</v>
+        <v>6.5269716748636089E-3</v>
       </c>
       <c r="AE2">
-        <v>0.03014698915264827</v>
+        <v>1.1644059263182479E-2</v>
       </c>
       <c r="AF2">
-        <v>0.004252923318113504</v>
+        <v>1.2168155629391639E-2</v>
       </c>
       <c r="AG2">
-        <v>0.02163331245710079</v>
+        <v>3.198899770518006E-3</v>
       </c>
       <c r="AH2">
-        <v>0.01371325273257247</v>
+        <v>1.2758413267071561E-2</v>
       </c>
       <c r="AI2">
-        <v>0.03165920610828441</v>
+        <v>3.9284697417508202E-2</v>
       </c>
       <c r="AJ2">
-        <v>0.0194738314646755</v>
+        <v>1.031790820221439E-2</v>
       </c>
       <c r="AK2">
-        <v>0.02914321887819155</v>
+        <v>9.0139622061824794E-3</v>
       </c>
       <c r="AL2">
-        <v>0.03301364053635842</v>
+        <v>1.597705913339852E-2</v>
       </c>
       <c r="AM2">
-        <v>0.01420990549916035</v>
+        <v>1.799099277804081E-2</v>
       </c>
       <c r="AN2">
-        <v>0.03162670502979692</v>
+        <v>1.2653556585449401E-2</v>
       </c>
       <c r="AO2">
-        <v>0.02671219778192836</v>
+        <v>1.9073445616853209E-2</v>
       </c>
       <c r="AP2">
-        <v>0.006995065133512717</v>
+        <v>3.8907001368326123E-2</v>
       </c>
       <c r="AQ2">
-        <v>0.006859350997800479</v>
+        <v>2.1241487369177948E-2</v>
       </c>
       <c r="AR2">
-        <v>0.02961715873221562</v>
+        <v>1.6387603611972241E-2</v>
       </c>
       <c r="AS2">
-        <v>0.01848335096128939</v>
+        <v>1.8400721616112989E-2</v>
       </c>
       <c r="AT2">
-        <v>0.01933934389934532</v>
+        <v>4.4940188329628587E-2</v>
       </c>
       <c r="AU2">
-        <v>0.03197455729998035</v>
+        <v>1.2968066405305191E-2</v>
       </c>
       <c r="AV2">
-        <v>0.03237511099606814</v>
+        <v>1.7669531737001549E-2</v>
       </c>
       <c r="AW2">
-        <v>0.007139619830849953</v>
+        <v>3.0476645310563731E-2</v>
       </c>
       <c r="AX2">
-        <v>0.01546351075747566</v>
+        <v>3.2058686245808338E-3</v>
       </c>
       <c r="AY2">
-        <v>0.03210152406673599</v>
+        <v>2.9639719962346781E-2</v>
       </c>
       <c r="AZ2">
-        <v>0.02969719284610889</v>
+        <v>2.1325330249614648E-2</v>
       </c>
       <c r="BA2">
-        <v>0.02654408479399941</v>
+        <v>1.9237514101737959E-2</v>
       </c>
       <c r="BB2">
-        <v>0.006797059702017794</v>
+        <v>1.325889778812102E-2</v>
       </c>
       <c r="BC2">
-        <v>0.02336007496380388</v>
+        <v>1.18115915281956E-2</v>
       </c>
       <c r="BD2">
-        <v>0.02210505359564283</v>
+        <v>1.044238184689336E-2</v>
       </c>
       <c r="BE2">
-        <v>0.008876892757030654</v>
+        <v>1.6594349538904641E-2</v>
       </c>
       <c r="BF2">
-        <v>0.02822996443260144</v>
+        <v>4.0578542720871393E-2</v>
       </c>
       <c r="BG2">
-        <v>0.01349623517326104</v>
+        <v>1.8896288548702091E-2</v>
       </c>
       <c r="BH2">
-        <v>0.02334192923469643</v>
+        <v>1.3959805126195881E-2</v>
       </c>
       <c r="BI2">
-        <v>0.01508668893343387</v>
+        <v>4.6375136498490819E-3</v>
       </c>
       <c r="BJ2">
-        <v>0.006236524624958501</v>
+        <v>1.51151368594463E-2</v>
       </c>
       <c r="BK2">
-        <v>0.02028498805016885</v>
+        <v>2.5478397359681201E-2</v>
       </c>
       <c r="BL2">
-        <v>0.01332608884630973</v>
+        <v>1.9446462550717591E-2</v>
       </c>
       <c r="BM2">
-        <v>0.00581921063970699</v>
+        <v>7.9981353331343014E-3</v>
       </c>
       <c r="BN2">
-        <v>0.009876677553931972</v>
+        <v>1.8714963328681451E-2</v>
       </c>
       <c r="BO2">
-        <v>0.02328546885970452</v>
+        <v>1.899734013931615E-2</v>
       </c>
       <c r="BP2">
-        <v>0.006778392062513666</v>
+        <v>2.298069062160785E-2</v>
       </c>
       <c r="BQ2">
-        <v>0.006334491609637432</v>
+        <v>9.2622625306681E-3</v>
       </c>
       <c r="BR2">
-        <v>0.03365804645292499</v>
+        <v>9.6927389014573439E-3</v>
       </c>
       <c r="BS2">
-        <v>0.00697429808303146</v>
+        <v>5.6840727862768392E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>46024.495191111113</v>
+      </c>
+      <c r="B3">
+        <v>6.6881639794375404E-4</v>
+      </c>
+      <c r="C3">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="D3">
+        <v>6.4203455240689732E-3</v>
+      </c>
+      <c r="E3">
+        <v>7.6132421687181541E-3</v>
+      </c>
+      <c r="F3">
+        <v>-7.4379856321042451E-3</v>
+      </c>
+      <c r="G3">
+        <v>7.0863806231596937E-3</v>
+      </c>
+      <c r="H3">
+        <v>6.0594424014630468E-3</v>
+      </c>
+      <c r="I3">
+        <v>7.1868363194526651E-3</v>
+      </c>
+      <c r="J3">
+        <v>2.0229133138318759E-5</v>
+      </c>
+      <c r="K3">
+        <v>0.99641138197973089</v>
+      </c>
+      <c r="L3">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M3">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>499</v>
+      </c>
+      <c r="P3">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="Q3">
+        <v>5.8195674943511506E-3</v>
+      </c>
+      <c r="R3">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="S3">
+        <v>9.2210152628536771E-3</v>
+      </c>
+      <c r="T3">
+        <v>4.6608886787488868E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.1386325536098311E-2</v>
+      </c>
+      <c r="V3">
+        <v>1.1543797346427661E-2</v>
+      </c>
+      <c r="W3">
+        <v>3.2068795902842902E-2</v>
+      </c>
+      <c r="X3">
+        <v>1.323432909910487E-2</v>
+      </c>
+      <c r="Y3">
+        <v>1.6583473149152581E-2</v>
+      </c>
+      <c r="Z3">
+        <v>4.4942630253139139E-2</v>
+      </c>
+      <c r="AA3">
+        <v>1.769514936707876E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.272953127767971E-2</v>
+      </c>
+      <c r="AC3">
+        <v>1.349305481473259E-2</v>
+      </c>
+      <c r="AD3">
+        <v>6.5269716748636089E-3</v>
+      </c>
+      <c r="AE3">
+        <v>1.1644059263182479E-2</v>
+      </c>
+      <c r="AF3">
+        <v>1.2168155629391639E-2</v>
+      </c>
+      <c r="AG3">
+        <v>3.198899770518006E-3</v>
+      </c>
+      <c r="AH3">
+        <v>1.2758413267071561E-2</v>
+      </c>
+      <c r="AI3">
+        <v>3.9284697417508202E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>1.031790820221439E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.0139622061824794E-3</v>
+      </c>
+      <c r="AL3">
+        <v>1.597705913339852E-2</v>
+      </c>
+      <c r="AM3">
+        <v>1.799099277804081E-2</v>
+      </c>
+      <c r="AN3">
+        <v>1.2653556585449401E-2</v>
+      </c>
+      <c r="AO3">
+        <v>1.9073445616853209E-2</v>
+      </c>
+      <c r="AP3">
+        <v>3.8907001368326123E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>2.1241487369177948E-2</v>
+      </c>
+      <c r="AR3">
+        <v>1.6387603611972241E-2</v>
+      </c>
+      <c r="AS3">
+        <v>1.8400721616112989E-2</v>
+      </c>
+      <c r="AT3">
+        <v>4.4940188329628587E-2</v>
+      </c>
+      <c r="AU3">
+        <v>1.2968066405305191E-2</v>
+      </c>
+      <c r="AV3">
+        <v>1.7669531737001549E-2</v>
+      </c>
+      <c r="AW3">
+        <v>3.0476645310563731E-2</v>
+      </c>
+      <c r="AX3">
+        <v>3.2058686245808338E-3</v>
+      </c>
+      <c r="AY3">
+        <v>2.9639719962346781E-2</v>
+      </c>
+      <c r="AZ3">
+        <v>2.1325330249614648E-2</v>
+      </c>
+      <c r="BA3">
+        <v>1.9237514101737959E-2</v>
+      </c>
+      <c r="BB3">
+        <v>1.325889778812102E-2</v>
+      </c>
+      <c r="BC3">
+        <v>1.18115915281956E-2</v>
+      </c>
+      <c r="BD3">
+        <v>1.044238184689336E-2</v>
+      </c>
+      <c r="BE3">
+        <v>1.6594349538904641E-2</v>
+      </c>
+      <c r="BF3">
+        <v>4.0578542720871393E-2</v>
+      </c>
+      <c r="BG3">
+        <v>1.8896288548702091E-2</v>
+      </c>
+      <c r="BH3">
+        <v>1.3959805126195881E-2</v>
+      </c>
+      <c r="BI3">
+        <v>4.6375136498490819E-3</v>
+      </c>
+      <c r="BJ3">
+        <v>1.51151368594463E-2</v>
+      </c>
+      <c r="BK3">
+        <v>2.5478397359681201E-2</v>
+      </c>
+      <c r="BL3">
+        <v>1.9446462550717591E-2</v>
+      </c>
+      <c r="BM3">
+        <v>7.9981353331343014E-3</v>
+      </c>
+      <c r="BN3">
+        <v>1.8714963328681451E-2</v>
+      </c>
+      <c r="BO3">
+        <v>1.899734013931615E-2</v>
+      </c>
+      <c r="BP3">
+        <v>2.298069062160785E-2</v>
+      </c>
+      <c r="BQ3">
+        <v>9.2622625306681E-3</v>
+      </c>
+      <c r="BR3">
+        <v>9.6927389014573439E-3</v>
+      </c>
+      <c r="BS3">
+        <v>5.6840727862768392E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>46024.496293703713</v>
+      </c>
+      <c r="B4">
+        <v>6.6881639794375404E-4</v>
+      </c>
+      <c r="C4">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="D4">
+        <v>6.4203455240689732E-3</v>
+      </c>
+      <c r="E4">
+        <v>7.6132421687181541E-3</v>
+      </c>
+      <c r="F4">
+        <v>-7.4379856321042451E-3</v>
+      </c>
+      <c r="G4">
+        <v>7.0863806231596937E-3</v>
+      </c>
+      <c r="H4">
+        <v>6.0130874726217502E-3</v>
+      </c>
+      <c r="I4">
+        <v>7.2897795970580156E-3</v>
+      </c>
+      <c r="J4">
+        <v>2.0229133138318759E-5</v>
+      </c>
+      <c r="K4">
+        <v>0.99641138197973089</v>
+      </c>
+      <c r="L4">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M4">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>499</v>
+      </c>
+      <c r="P4">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="Q4">
+        <v>5.8195674943511506E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="S4">
+        <v>9.2210152628536771E-3</v>
+      </c>
+      <c r="T4">
+        <v>4.6608886787488868E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.1386325536098311E-2</v>
+      </c>
+      <c r="V4">
+        <v>1.1543797346427661E-2</v>
+      </c>
+      <c r="W4">
+        <v>3.2068795902842902E-2</v>
+      </c>
+      <c r="X4">
+        <v>1.323432909910487E-2</v>
+      </c>
+      <c r="Y4">
+        <v>1.6583473149152581E-2</v>
+      </c>
+      <c r="Z4">
+        <v>4.4942630253139139E-2</v>
+      </c>
+      <c r="AA4">
+        <v>1.769514936707876E-2</v>
+      </c>
+      <c r="AB4">
+        <v>1.272953127767971E-2</v>
+      </c>
+      <c r="AC4">
+        <v>1.349305481473259E-2</v>
+      </c>
+      <c r="AD4">
+        <v>6.5269716748636089E-3</v>
+      </c>
+      <c r="AE4">
+        <v>1.1644059263182479E-2</v>
+      </c>
+      <c r="AF4">
+        <v>1.2168155629391639E-2</v>
+      </c>
+      <c r="AG4">
+        <v>3.198899770518006E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.2758413267071561E-2</v>
+      </c>
+      <c r="AI4">
+        <v>3.9284697417508202E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.031790820221439E-2</v>
+      </c>
+      <c r="AK4">
+        <v>9.0139622061824794E-3</v>
+      </c>
+      <c r="AL4">
+        <v>1.597705913339852E-2</v>
+      </c>
+      <c r="AM4">
+        <v>1.799099277804081E-2</v>
+      </c>
+      <c r="AN4">
+        <v>1.2653556585449401E-2</v>
+      </c>
+      <c r="AO4">
+        <v>1.9073445616853209E-2</v>
+      </c>
+      <c r="AP4">
+        <v>3.8907001368326123E-2</v>
+      </c>
+      <c r="AQ4">
+        <v>2.1241487369177948E-2</v>
+      </c>
+      <c r="AR4">
+        <v>1.6387603611972241E-2</v>
+      </c>
+      <c r="AS4">
+        <v>1.8400721616112989E-2</v>
+      </c>
+      <c r="AT4">
+        <v>4.4940188329628587E-2</v>
+      </c>
+      <c r="AU4">
+        <v>1.2968066405305191E-2</v>
+      </c>
+      <c r="AV4">
+        <v>1.7669531737001549E-2</v>
+      </c>
+      <c r="AW4">
+        <v>3.0476645310563731E-2</v>
+      </c>
+      <c r="AX4">
+        <v>3.2058686245808338E-3</v>
+      </c>
+      <c r="AY4">
+        <v>2.9639719962346781E-2</v>
+      </c>
+      <c r="AZ4">
+        <v>2.1325330249614648E-2</v>
+      </c>
+      <c r="BA4">
+        <v>1.9237514101737959E-2</v>
+      </c>
+      <c r="BB4">
+        <v>1.325889778812102E-2</v>
+      </c>
+      <c r="BC4">
+        <v>1.18115915281956E-2</v>
+      </c>
+      <c r="BD4">
+        <v>1.044238184689336E-2</v>
+      </c>
+      <c r="BE4">
+        <v>1.6594349538904641E-2</v>
+      </c>
+      <c r="BF4">
+        <v>4.0578542720871393E-2</v>
+      </c>
+      <c r="BG4">
+        <v>1.8896288548702091E-2</v>
+      </c>
+      <c r="BH4">
+        <v>1.3959805126195881E-2</v>
+      </c>
+      <c r="BI4">
+        <v>4.6375136498490819E-3</v>
+      </c>
+      <c r="BJ4">
+        <v>1.51151368594463E-2</v>
+      </c>
+      <c r="BK4">
+        <v>2.5478397359681201E-2</v>
+      </c>
+      <c r="BL4">
+        <v>1.9446462550717591E-2</v>
+      </c>
+      <c r="BM4">
+        <v>7.9981353331343014E-3</v>
+      </c>
+      <c r="BN4">
+        <v>1.8714963328681451E-2</v>
+      </c>
+      <c r="BO4">
+        <v>1.899734013931615E-2</v>
+      </c>
+      <c r="BP4">
+        <v>2.298069062160785E-2</v>
+      </c>
+      <c r="BQ4">
+        <v>9.2622625306681E-3</v>
+      </c>
+      <c r="BR4">
+        <v>9.6927389014573439E-3</v>
+      </c>
+      <c r="BS4">
+        <v>5.6840727862768392E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>46024.496934733797</v>
+      </c>
+      <c r="B5">
+        <v>6.6881639794375404E-4</v>
+      </c>
+      <c r="C5">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="D5">
+        <v>6.4203455240689732E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.6132421687181541E-3</v>
+      </c>
+      <c r="F5">
+        <v>-7.4379856321042451E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.0863806231596937E-3</v>
+      </c>
+      <c r="H5">
+        <v>6.2360095869605564E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.2333665926382663E-3</v>
+      </c>
+      <c r="J5">
+        <v>2.0229133138318759E-5</v>
+      </c>
+      <c r="K5">
+        <v>0.99641138197973089</v>
+      </c>
+      <c r="L5">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M5">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>499</v>
+      </c>
+      <c r="P5">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="Q5">
+        <v>5.8195674943511506E-3</v>
+      </c>
+      <c r="R5">
+        <v>2.9097837471755749E-3</v>
+      </c>
+      <c r="S5">
+        <v>9.2210152628536771E-3</v>
+      </c>
+      <c r="T5">
+        <v>4.6608886787488868E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.1386325536098311E-2</v>
+      </c>
+      <c r="V5">
+        <v>1.1543797346427661E-2</v>
+      </c>
+      <c r="W5">
+        <v>3.2068795902842902E-2</v>
+      </c>
+      <c r="X5">
+        <v>1.323432909910487E-2</v>
+      </c>
+      <c r="Y5">
+        <v>1.6583473149152581E-2</v>
+      </c>
+      <c r="Z5">
+        <v>4.4942630253139139E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.769514936707876E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1.272953127767971E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.349305481473259E-2</v>
+      </c>
+      <c r="AD5">
+        <v>6.5269716748636089E-3</v>
+      </c>
+      <c r="AE5">
+        <v>1.1644059263182479E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1.2168155629391639E-2</v>
+      </c>
+      <c r="AG5">
+        <v>3.198899770518006E-3</v>
+      </c>
+      <c r="AH5">
+        <v>1.2758413267071561E-2</v>
+      </c>
+      <c r="AI5">
+        <v>3.9284697417508202E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.031790820221439E-2</v>
+      </c>
+      <c r="AK5">
+        <v>9.0139622061824794E-3</v>
+      </c>
+      <c r="AL5">
+        <v>1.597705913339852E-2</v>
+      </c>
+      <c r="AM5">
+        <v>1.799099277804081E-2</v>
+      </c>
+      <c r="AN5">
+        <v>1.2653556585449401E-2</v>
+      </c>
+      <c r="AO5">
+        <v>1.9073445616853209E-2</v>
+      </c>
+      <c r="AP5">
+        <v>3.8907001368326123E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>2.1241487369177948E-2</v>
+      </c>
+      <c r="AR5">
+        <v>1.6387603611972241E-2</v>
+      </c>
+      <c r="AS5">
+        <v>1.8400721616112989E-2</v>
+      </c>
+      <c r="AT5">
+        <v>4.4940188329628587E-2</v>
+      </c>
+      <c r="AU5">
+        <v>1.2968066405305191E-2</v>
+      </c>
+      <c r="AV5">
+        <v>1.7669531737001549E-2</v>
+      </c>
+      <c r="AW5">
+        <v>3.0476645310563731E-2</v>
+      </c>
+      <c r="AX5">
+        <v>3.2058686245808338E-3</v>
+      </c>
+      <c r="AY5">
+        <v>2.9639719962346781E-2</v>
+      </c>
+      <c r="AZ5">
+        <v>2.1325330249614648E-2</v>
+      </c>
+      <c r="BA5">
+        <v>1.9237514101737959E-2</v>
+      </c>
+      <c r="BB5">
+        <v>1.325889778812102E-2</v>
+      </c>
+      <c r="BC5">
+        <v>1.18115915281956E-2</v>
+      </c>
+      <c r="BD5">
+        <v>1.044238184689336E-2</v>
+      </c>
+      <c r="BE5">
+        <v>1.6594349538904641E-2</v>
+      </c>
+      <c r="BF5">
+        <v>4.0578542720871393E-2</v>
+      </c>
+      <c r="BG5">
+        <v>1.8896288548702091E-2</v>
+      </c>
+      <c r="BH5">
+        <v>1.3959805126195881E-2</v>
+      </c>
+      <c r="BI5">
+        <v>4.6375136498490819E-3</v>
+      </c>
+      <c r="BJ5">
+        <v>1.51151368594463E-2</v>
+      </c>
+      <c r="BK5">
+        <v>2.5478397359681201E-2</v>
+      </c>
+      <c r="BL5">
+        <v>1.9446462550717591E-2</v>
+      </c>
+      <c r="BM5">
+        <v>7.9981353331343014E-3</v>
+      </c>
+      <c r="BN5">
+        <v>1.8714963328681451E-2</v>
+      </c>
+      <c r="BO5">
+        <v>1.899734013931615E-2</v>
+      </c>
+      <c r="BP5">
+        <v>2.298069062160785E-2</v>
+      </c>
+      <c r="BQ5">
+        <v>9.2622625306681E-3</v>
+      </c>
+      <c r="BR5">
+        <v>9.6927389014573439E-3</v>
+      </c>
+      <c r="BS5">
+        <v>5.6840727862768392E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>46024.506517751513</v>
+      </c>
+      <c r="B6">
+        <v>6.6881639794375405E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.29097837471755761</v>
+      </c>
+      <c r="D6">
+        <v>0.64203455240689733</v>
+      </c>
+      <c r="E6">
+        <v>0.7613242168718154</v>
+      </c>
+      <c r="F6">
+        <v>-0.74379856321042448</v>
+      </c>
+      <c r="G6">
+        <v>0.70863806231596937</v>
+      </c>
+      <c r="H6">
+        <v>0.61465561519133027</v>
+      </c>
+      <c r="I6">
+        <v>0.71389095701471994</v>
+      </c>
+      <c r="J6">
+        <v>2.0229133138318762E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.99641138197973089</v>
+      </c>
+      <c r="L6">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M6">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>499</v>
+      </c>
+      <c r="P6">
+        <v>0.29097837471755761</v>
+      </c>
+      <c r="Q6">
+        <v>0.58195674943511511</v>
+      </c>
+      <c r="R6">
+        <v>0.29097837471755761</v>
+      </c>
+      <c r="S6">
+        <v>0.92210152628536768</v>
+      </c>
+      <c r="T6">
+        <v>4.6608886787488872</v>
+      </c>
+      <c r="U6">
+        <v>1.138632553609831</v>
+      </c>
+      <c r="V6">
+        <v>1.154379734642766</v>
+      </c>
+      <c r="W6">
+        <v>3.2068795902842901</v>
+      </c>
+      <c r="X6">
+        <v>1.3234329099104869</v>
+      </c>
+      <c r="Y6">
+        <v>1.6583473149152581</v>
+      </c>
+      <c r="Z6">
+        <v>4.4942630253139138</v>
+      </c>
+      <c r="AA6">
+        <v>1.769514936707876</v>
+      </c>
+      <c r="AB6">
+        <v>1.2729531277679711</v>
+      </c>
+      <c r="AC6">
+        <v>1.349305481473259</v>
+      </c>
+      <c r="AD6">
+        <v>0.65269716748636086</v>
+      </c>
+      <c r="AE6">
+        <v>1.164405926318248</v>
+      </c>
+      <c r="AF6">
+        <v>1.2168155629391639</v>
+      </c>
+      <c r="AG6">
+        <v>0.31988997705180061</v>
+      </c>
+      <c r="AH6">
+        <v>1.275841326707156</v>
+      </c>
+      <c r="AI6">
+        <v>3.9284697417508201</v>
+      </c>
+      <c r="AJ6">
+        <v>1.031790820221439</v>
+      </c>
+      <c r="AK6">
+        <v>0.90139622061824798</v>
+      </c>
+      <c r="AL6">
+        <v>1.5977059133398519</v>
+      </c>
+      <c r="AM6">
+        <v>1.7990992778040811</v>
+      </c>
+      <c r="AN6">
+        <v>1.2653556585449399</v>
+      </c>
+      <c r="AO6">
+        <v>1.9073445616853211</v>
+      </c>
+      <c r="AP6">
+        <v>3.8907001368326122</v>
+      </c>
+      <c r="AQ6">
+        <v>2.1241487369177952</v>
+      </c>
+      <c r="AR6">
+        <v>1.6387603611972239</v>
+      </c>
+      <c r="AS6">
+        <v>1.8400721616112989</v>
+      </c>
+      <c r="AT6">
+        <v>4.4940188329628592</v>
+      </c>
+      <c r="AU6">
+        <v>1.296806640530519</v>
+      </c>
+      <c r="AV6">
+        <v>1.7669531737001549</v>
+      </c>
+      <c r="AW6">
+        <v>3.0476645310563728</v>
+      </c>
+      <c r="AX6">
+        <v>0.32058686245808338</v>
+      </c>
+      <c r="AY6">
+        <v>2.9639719962346782</v>
+      </c>
+      <c r="AZ6">
+        <v>2.1325330249614649</v>
+      </c>
+      <c r="BA6">
+        <v>1.923751410173796</v>
+      </c>
+      <c r="BB6">
+        <v>1.325889778812102</v>
+      </c>
+      <c r="BC6">
+        <v>1.18115915281956</v>
+      </c>
+      <c r="BD6">
+        <v>1.044238184689336</v>
+      </c>
+      <c r="BE6">
+        <v>1.659434953890464</v>
+      </c>
+      <c r="BF6">
+        <v>4.0578542720871376</v>
+      </c>
+      <c r="BG6">
+        <v>1.8896288548702089</v>
+      </c>
+      <c r="BH6">
+        <v>1.3959805126195881</v>
+      </c>
+      <c r="BI6">
+        <v>0.46375136498490821</v>
+      </c>
+      <c r="BJ6">
+        <v>1.5115136859446301</v>
+      </c>
+      <c r="BK6">
+        <v>2.54783973596812</v>
+      </c>
+      <c r="BL6">
+        <v>1.9446462550717589</v>
+      </c>
+      <c r="BM6">
+        <v>0.79981353331343019</v>
+      </c>
+      <c r="BN6">
+        <v>1.8714963328681451</v>
+      </c>
+      <c r="BO6">
+        <v>1.899734013931615</v>
+      </c>
+      <c r="BP6">
+        <v>2.2980690621607849</v>
+      </c>
+      <c r="BQ6">
+        <v>0.92622625306680995</v>
+      </c>
+      <c r="BR6">
+        <v>0.9692738901457344</v>
+      </c>
+      <c r="BS6">
+        <v>5.6840727862768388</v>
       </c>
     </row>
   </sheetData>

--- a/src/risk_results.xlsx
+++ b/src/risk_results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhaachen-my.sharepoint.com/personal/ck1082s_ad_fh-aachen_de/Documents/Dokumente/SCAN/portfolio/VaR-ES-for-Electricity-Trading/src/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDC5E3CCB2BB0E8802602EE7C24EB49B53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A6441A-78C1-4565-97F9-72A331CEF8A2}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -235,11 +229,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,25 +295,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -357,7 +343,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -391,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,10 +411,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,41 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L32" sqref="L32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="56" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="71" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:71">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,39 +805,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:71">
       <c r="A2" s="2">
-        <v>46024.454624421298</v>
+        <v>46024.4546244213</v>
       </c>
       <c r="B2">
-        <v>6.6881639794375404E-4</v>
+        <v>0.000668816397943754</v>
       </c>
       <c r="C2">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="D2">
-        <v>6.4203455240689732E-3</v>
+        <v>0.006420345524068973</v>
       </c>
       <c r="E2">
-        <v>7.6132421687181541E-3</v>
+        <v>0.007613242168718154</v>
       </c>
       <c r="F2">
-        <v>-7.4379856321042451E-3</v>
+        <v>-0.007437985632104245</v>
       </c>
       <c r="G2">
-        <v>7.0863806231596937E-3</v>
+        <v>0.007086380623159694</v>
       </c>
       <c r="H2">
-        <v>6.1777820839297431E-3</v>
+        <v>0.006177782083929743</v>
       </c>
       <c r="I2">
-        <v>7.1575512593298066E-3</v>
+        <v>0.007157551259329807</v>
       </c>
       <c r="J2">
-        <v>2.0229133138318759E-5</v>
+        <v>2.022913313831876E-05</v>
       </c>
       <c r="K2">
-        <v>0.99641138197973089</v>
+        <v>0.9964113819797309</v>
       </c>
       <c r="L2">
         <v>0.1014419278001957</v>
@@ -895,207 +852,207 @@
         <v>499</v>
       </c>
       <c r="P2">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="Q2">
-        <v>5.8195674943511506E-3</v>
+        <v>0.005819567494351151</v>
       </c>
       <c r="R2">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="S2">
-        <v>9.2210152628536771E-3</v>
+        <v>0.009221015262853677</v>
       </c>
       <c r="T2">
-        <v>4.6608886787488868E-2</v>
+        <v>0.04660888678748887</v>
       </c>
       <c r="U2">
-        <v>1.1386325536098311E-2</v>
+        <v>0.01138632553609831</v>
       </c>
       <c r="V2">
-        <v>1.1543797346427661E-2</v>
+        <v>0.01154379734642766</v>
       </c>
       <c r="W2">
-        <v>3.2068795902842902E-2</v>
+        <v>0.0320687959028429</v>
       </c>
       <c r="X2">
-        <v>1.323432909910487E-2</v>
+        <v>0.01323432909910487</v>
       </c>
       <c r="Y2">
-        <v>1.6583473149152581E-2</v>
+        <v>0.01658347314915258</v>
       </c>
       <c r="Z2">
-        <v>4.4942630253139139E-2</v>
+        <v>0.04494263025313914</v>
       </c>
       <c r="AA2">
-        <v>1.769514936707876E-2</v>
+        <v>0.01769514936707876</v>
       </c>
       <c r="AB2">
-        <v>1.272953127767971E-2</v>
+        <v>0.01272953127767971</v>
       </c>
       <c r="AC2">
-        <v>1.349305481473259E-2</v>
+        <v>0.01349305481473259</v>
       </c>
       <c r="AD2">
-        <v>6.5269716748636089E-3</v>
+        <v>0.006526971674863609</v>
       </c>
       <c r="AE2">
-        <v>1.1644059263182479E-2</v>
+        <v>0.01164405926318248</v>
       </c>
       <c r="AF2">
-        <v>1.2168155629391639E-2</v>
+        <v>0.01216815562939164</v>
       </c>
       <c r="AG2">
-        <v>3.198899770518006E-3</v>
+        <v>0.003198899770518006</v>
       </c>
       <c r="AH2">
-        <v>1.2758413267071561E-2</v>
+        <v>0.01275841326707156</v>
       </c>
       <c r="AI2">
-        <v>3.9284697417508202E-2</v>
+        <v>0.0392846974175082</v>
       </c>
       <c r="AJ2">
-        <v>1.031790820221439E-2</v>
+        <v>0.01031790820221439</v>
       </c>
       <c r="AK2">
-        <v>9.0139622061824794E-3</v>
+        <v>0.009013962206182479</v>
       </c>
       <c r="AL2">
-        <v>1.597705913339852E-2</v>
+        <v>0.01597705913339852</v>
       </c>
       <c r="AM2">
-        <v>1.799099277804081E-2</v>
+        <v>0.01799099277804081</v>
       </c>
       <c r="AN2">
-        <v>1.2653556585449401E-2</v>
+        <v>0.0126535565854494</v>
       </c>
       <c r="AO2">
-        <v>1.9073445616853209E-2</v>
+        <v>0.01907344561685321</v>
       </c>
       <c r="AP2">
-        <v>3.8907001368326123E-2</v>
+        <v>0.03890700136832612</v>
       </c>
       <c r="AQ2">
-        <v>2.1241487369177948E-2</v>
+        <v>0.02124148736917795</v>
       </c>
       <c r="AR2">
-        <v>1.6387603611972241E-2</v>
+        <v>0.01638760361197224</v>
       </c>
       <c r="AS2">
-        <v>1.8400721616112989E-2</v>
+        <v>0.01840072161611299</v>
       </c>
       <c r="AT2">
-        <v>4.4940188329628587E-2</v>
+        <v>0.04494018832962859</v>
       </c>
       <c r="AU2">
-        <v>1.2968066405305191E-2</v>
+        <v>0.01296806640530519</v>
       </c>
       <c r="AV2">
-        <v>1.7669531737001549E-2</v>
+        <v>0.01766953173700155</v>
       </c>
       <c r="AW2">
-        <v>3.0476645310563731E-2</v>
+        <v>0.03047664531056373</v>
       </c>
       <c r="AX2">
-        <v>3.2058686245808338E-3</v>
+        <v>0.003205868624580834</v>
       </c>
       <c r="AY2">
-        <v>2.9639719962346781E-2</v>
+        <v>0.02963971996234678</v>
       </c>
       <c r="AZ2">
-        <v>2.1325330249614648E-2</v>
+        <v>0.02132533024961465</v>
       </c>
       <c r="BA2">
-        <v>1.9237514101737959E-2</v>
+        <v>0.01923751410173796</v>
       </c>
       <c r="BB2">
-        <v>1.325889778812102E-2</v>
+        <v>0.01325889778812102</v>
       </c>
       <c r="BC2">
-        <v>1.18115915281956E-2</v>
+        <v>0.0118115915281956</v>
       </c>
       <c r="BD2">
-        <v>1.044238184689336E-2</v>
+        <v>0.01044238184689336</v>
       </c>
       <c r="BE2">
-        <v>1.6594349538904641E-2</v>
+        <v>0.01659434953890464</v>
       </c>
       <c r="BF2">
-        <v>4.0578542720871393E-2</v>
+        <v>0.04057854272087139</v>
       </c>
       <c r="BG2">
-        <v>1.8896288548702091E-2</v>
+        <v>0.01889628854870209</v>
       </c>
       <c r="BH2">
-        <v>1.3959805126195881E-2</v>
+        <v>0.01395980512619588</v>
       </c>
       <c r="BI2">
-        <v>4.6375136498490819E-3</v>
+        <v>0.004637513649849082</v>
       </c>
       <c r="BJ2">
-        <v>1.51151368594463E-2</v>
+        <v>0.0151151368594463</v>
       </c>
       <c r="BK2">
-        <v>2.5478397359681201E-2</v>
+        <v>0.0254783973596812</v>
       </c>
       <c r="BL2">
-        <v>1.9446462550717591E-2</v>
+        <v>0.01944646255071759</v>
       </c>
       <c r="BM2">
-        <v>7.9981353331343014E-3</v>
+        <v>0.007998135333134301</v>
       </c>
       <c r="BN2">
-        <v>1.8714963328681451E-2</v>
+        <v>0.01871496332868145</v>
       </c>
       <c r="BO2">
-        <v>1.899734013931615E-2</v>
+        <v>0.01899734013931615</v>
       </c>
       <c r="BP2">
-        <v>2.298069062160785E-2</v>
+        <v>0.02298069062160785</v>
       </c>
       <c r="BQ2">
-        <v>9.2622625306681E-3</v>
+        <v>0.0092622625306681</v>
       </c>
       <c r="BR2">
-        <v>9.6927389014573439E-3</v>
+        <v>0.009692738901457344</v>
       </c>
       <c r="BS2">
-        <v>5.6840727862768392E-2</v>
+        <v>0.05684072786276839</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71">
       <c r="A3" s="2">
-        <v>46024.495191111113</v>
+        <v>46024.49519111111</v>
       </c>
       <c r="B3">
-        <v>6.6881639794375404E-4</v>
+        <v>0.000668816397943754</v>
       </c>
       <c r="C3">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="D3">
-        <v>6.4203455240689732E-3</v>
+        <v>0.006420345524068973</v>
       </c>
       <c r="E3">
-        <v>7.6132421687181541E-3</v>
+        <v>0.007613242168718154</v>
       </c>
       <c r="F3">
-        <v>-7.4379856321042451E-3</v>
+        <v>-0.007437985632104245</v>
       </c>
       <c r="G3">
-        <v>7.0863806231596937E-3</v>
+        <v>0.007086380623159694</v>
       </c>
       <c r="H3">
-        <v>6.0594424014630468E-3</v>
+        <v>0.006059442401463047</v>
       </c>
       <c r="I3">
-        <v>7.1868363194526651E-3</v>
+        <v>0.007186836319452665</v>
       </c>
       <c r="J3">
-        <v>2.0229133138318759E-5</v>
+        <v>2.022913313831876E-05</v>
       </c>
       <c r="K3">
-        <v>0.99641138197973089</v>
+        <v>0.9964113819797309</v>
       </c>
       <c r="L3">
         <v>0.1014419278001957</v>
@@ -1110,207 +1067,207 @@
         <v>499</v>
       </c>
       <c r="P3">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="Q3">
-        <v>5.8195674943511506E-3</v>
+        <v>0.005819567494351151</v>
       </c>
       <c r="R3">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="S3">
-        <v>9.2210152628536771E-3</v>
+        <v>0.009221015262853677</v>
       </c>
       <c r="T3">
-        <v>4.6608886787488868E-2</v>
+        <v>0.04660888678748887</v>
       </c>
       <c r="U3">
-        <v>1.1386325536098311E-2</v>
+        <v>0.01138632553609831</v>
       </c>
       <c r="V3">
-        <v>1.1543797346427661E-2</v>
+        <v>0.01154379734642766</v>
       </c>
       <c r="W3">
-        <v>3.2068795902842902E-2</v>
+        <v>0.0320687959028429</v>
       </c>
       <c r="X3">
-        <v>1.323432909910487E-2</v>
+        <v>0.01323432909910487</v>
       </c>
       <c r="Y3">
-        <v>1.6583473149152581E-2</v>
+        <v>0.01658347314915258</v>
       </c>
       <c r="Z3">
-        <v>4.4942630253139139E-2</v>
+        <v>0.04494263025313914</v>
       </c>
       <c r="AA3">
-        <v>1.769514936707876E-2</v>
+        <v>0.01769514936707876</v>
       </c>
       <c r="AB3">
-        <v>1.272953127767971E-2</v>
+        <v>0.01272953127767971</v>
       </c>
       <c r="AC3">
-        <v>1.349305481473259E-2</v>
+        <v>0.01349305481473259</v>
       </c>
       <c r="AD3">
-        <v>6.5269716748636089E-3</v>
+        <v>0.006526971674863609</v>
       </c>
       <c r="AE3">
-        <v>1.1644059263182479E-2</v>
+        <v>0.01164405926318248</v>
       </c>
       <c r="AF3">
-        <v>1.2168155629391639E-2</v>
+        <v>0.01216815562939164</v>
       </c>
       <c r="AG3">
-        <v>3.198899770518006E-3</v>
+        <v>0.003198899770518006</v>
       </c>
       <c r="AH3">
-        <v>1.2758413267071561E-2</v>
+        <v>0.01275841326707156</v>
       </c>
       <c r="AI3">
-        <v>3.9284697417508202E-2</v>
+        <v>0.0392846974175082</v>
       </c>
       <c r="AJ3">
-        <v>1.031790820221439E-2</v>
+        <v>0.01031790820221439</v>
       </c>
       <c r="AK3">
-        <v>9.0139622061824794E-3</v>
+        <v>0.009013962206182479</v>
       </c>
       <c r="AL3">
-        <v>1.597705913339852E-2</v>
+        <v>0.01597705913339852</v>
       </c>
       <c r="AM3">
-        <v>1.799099277804081E-2</v>
+        <v>0.01799099277804081</v>
       </c>
       <c r="AN3">
-        <v>1.2653556585449401E-2</v>
+        <v>0.0126535565854494</v>
       </c>
       <c r="AO3">
-        <v>1.9073445616853209E-2</v>
+        <v>0.01907344561685321</v>
       </c>
       <c r="AP3">
-        <v>3.8907001368326123E-2</v>
+        <v>0.03890700136832612</v>
       </c>
       <c r="AQ3">
-        <v>2.1241487369177948E-2</v>
+        <v>0.02124148736917795</v>
       </c>
       <c r="AR3">
-        <v>1.6387603611972241E-2</v>
+        <v>0.01638760361197224</v>
       </c>
       <c r="AS3">
-        <v>1.8400721616112989E-2</v>
+        <v>0.01840072161611299</v>
       </c>
       <c r="AT3">
-        <v>4.4940188329628587E-2</v>
+        <v>0.04494018832962859</v>
       </c>
       <c r="AU3">
-        <v>1.2968066405305191E-2</v>
+        <v>0.01296806640530519</v>
       </c>
       <c r="AV3">
-        <v>1.7669531737001549E-2</v>
+        <v>0.01766953173700155</v>
       </c>
       <c r="AW3">
-        <v>3.0476645310563731E-2</v>
+        <v>0.03047664531056373</v>
       </c>
       <c r="AX3">
-        <v>3.2058686245808338E-3</v>
+        <v>0.003205868624580834</v>
       </c>
       <c r="AY3">
-        <v>2.9639719962346781E-2</v>
+        <v>0.02963971996234678</v>
       </c>
       <c r="AZ3">
-        <v>2.1325330249614648E-2</v>
+        <v>0.02132533024961465</v>
       </c>
       <c r="BA3">
-        <v>1.9237514101737959E-2</v>
+        <v>0.01923751410173796</v>
       </c>
       <c r="BB3">
-        <v>1.325889778812102E-2</v>
+        <v>0.01325889778812102</v>
       </c>
       <c r="BC3">
-        <v>1.18115915281956E-2</v>
+        <v>0.0118115915281956</v>
       </c>
       <c r="BD3">
-        <v>1.044238184689336E-2</v>
+        <v>0.01044238184689336</v>
       </c>
       <c r="BE3">
-        <v>1.6594349538904641E-2</v>
+        <v>0.01659434953890464</v>
       </c>
       <c r="BF3">
-        <v>4.0578542720871393E-2</v>
+        <v>0.04057854272087139</v>
       </c>
       <c r="BG3">
-        <v>1.8896288548702091E-2</v>
+        <v>0.01889628854870209</v>
       </c>
       <c r="BH3">
-        <v>1.3959805126195881E-2</v>
+        <v>0.01395980512619588</v>
       </c>
       <c r="BI3">
-        <v>4.6375136498490819E-3</v>
+        <v>0.004637513649849082</v>
       </c>
       <c r="BJ3">
-        <v>1.51151368594463E-2</v>
+        <v>0.0151151368594463</v>
       </c>
       <c r="BK3">
-        <v>2.5478397359681201E-2</v>
+        <v>0.0254783973596812</v>
       </c>
       <c r="BL3">
-        <v>1.9446462550717591E-2</v>
+        <v>0.01944646255071759</v>
       </c>
       <c r="BM3">
-        <v>7.9981353331343014E-3</v>
+        <v>0.007998135333134301</v>
       </c>
       <c r="BN3">
-        <v>1.8714963328681451E-2</v>
+        <v>0.01871496332868145</v>
       </c>
       <c r="BO3">
-        <v>1.899734013931615E-2</v>
+        <v>0.01899734013931615</v>
       </c>
       <c r="BP3">
-        <v>2.298069062160785E-2</v>
+        <v>0.02298069062160785</v>
       </c>
       <c r="BQ3">
-        <v>9.2622625306681E-3</v>
+        <v>0.0092622625306681</v>
       </c>
       <c r="BR3">
-        <v>9.6927389014573439E-3</v>
+        <v>0.009692738901457344</v>
       </c>
       <c r="BS3">
-        <v>5.6840727862768392E-2</v>
+        <v>0.05684072786276839</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:71">
       <c r="A4" s="2">
-        <v>46024.496293703713</v>
+        <v>46024.49629370371</v>
       </c>
       <c r="B4">
-        <v>6.6881639794375404E-4</v>
+        <v>0.000668816397943754</v>
       </c>
       <c r="C4">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="D4">
-        <v>6.4203455240689732E-3</v>
+        <v>0.006420345524068973</v>
       </c>
       <c r="E4">
-        <v>7.6132421687181541E-3</v>
+        <v>0.007613242168718154</v>
       </c>
       <c r="F4">
-        <v>-7.4379856321042451E-3</v>
+        <v>-0.007437985632104245</v>
       </c>
       <c r="G4">
-        <v>7.0863806231596937E-3</v>
+        <v>0.007086380623159694</v>
       </c>
       <c r="H4">
-        <v>6.0130874726217502E-3</v>
+        <v>0.00601308747262175</v>
       </c>
       <c r="I4">
-        <v>7.2897795970580156E-3</v>
+        <v>0.007289779597058016</v>
       </c>
       <c r="J4">
-        <v>2.0229133138318759E-5</v>
+        <v>2.022913313831876E-05</v>
       </c>
       <c r="K4">
-        <v>0.99641138197973089</v>
+        <v>0.9964113819797309</v>
       </c>
       <c r="L4">
         <v>0.1014419278001957</v>
@@ -1325,207 +1282,207 @@
         <v>499</v>
       </c>
       <c r="P4">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="Q4">
-        <v>5.8195674943511506E-3</v>
+        <v>0.005819567494351151</v>
       </c>
       <c r="R4">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="S4">
-        <v>9.2210152628536771E-3</v>
+        <v>0.009221015262853677</v>
       </c>
       <c r="T4">
-        <v>4.6608886787488868E-2</v>
+        <v>0.04660888678748887</v>
       </c>
       <c r="U4">
-        <v>1.1386325536098311E-2</v>
+        <v>0.01138632553609831</v>
       </c>
       <c r="V4">
-        <v>1.1543797346427661E-2</v>
+        <v>0.01154379734642766</v>
       </c>
       <c r="W4">
-        <v>3.2068795902842902E-2</v>
+        <v>0.0320687959028429</v>
       </c>
       <c r="X4">
-        <v>1.323432909910487E-2</v>
+        <v>0.01323432909910487</v>
       </c>
       <c r="Y4">
-        <v>1.6583473149152581E-2</v>
+        <v>0.01658347314915258</v>
       </c>
       <c r="Z4">
-        <v>4.4942630253139139E-2</v>
+        <v>0.04494263025313914</v>
       </c>
       <c r="AA4">
-        <v>1.769514936707876E-2</v>
+        <v>0.01769514936707876</v>
       </c>
       <c r="AB4">
-        <v>1.272953127767971E-2</v>
+        <v>0.01272953127767971</v>
       </c>
       <c r="AC4">
-        <v>1.349305481473259E-2</v>
+        <v>0.01349305481473259</v>
       </c>
       <c r="AD4">
-        <v>6.5269716748636089E-3</v>
+        <v>0.006526971674863609</v>
       </c>
       <c r="AE4">
-        <v>1.1644059263182479E-2</v>
+        <v>0.01164405926318248</v>
       </c>
       <c r="AF4">
-        <v>1.2168155629391639E-2</v>
+        <v>0.01216815562939164</v>
       </c>
       <c r="AG4">
-        <v>3.198899770518006E-3</v>
+        <v>0.003198899770518006</v>
       </c>
       <c r="AH4">
-        <v>1.2758413267071561E-2</v>
+        <v>0.01275841326707156</v>
       </c>
       <c r="AI4">
-        <v>3.9284697417508202E-2</v>
+        <v>0.0392846974175082</v>
       </c>
       <c r="AJ4">
-        <v>1.031790820221439E-2</v>
+        <v>0.01031790820221439</v>
       </c>
       <c r="AK4">
-        <v>9.0139622061824794E-3</v>
+        <v>0.009013962206182479</v>
       </c>
       <c r="AL4">
-        <v>1.597705913339852E-2</v>
+        <v>0.01597705913339852</v>
       </c>
       <c r="AM4">
-        <v>1.799099277804081E-2</v>
+        <v>0.01799099277804081</v>
       </c>
       <c r="AN4">
-        <v>1.2653556585449401E-2</v>
+        <v>0.0126535565854494</v>
       </c>
       <c r="AO4">
-        <v>1.9073445616853209E-2</v>
+        <v>0.01907344561685321</v>
       </c>
       <c r="AP4">
-        <v>3.8907001368326123E-2</v>
+        <v>0.03890700136832612</v>
       </c>
       <c r="AQ4">
-        <v>2.1241487369177948E-2</v>
+        <v>0.02124148736917795</v>
       </c>
       <c r="AR4">
-        <v>1.6387603611972241E-2</v>
+        <v>0.01638760361197224</v>
       </c>
       <c r="AS4">
-        <v>1.8400721616112989E-2</v>
+        <v>0.01840072161611299</v>
       </c>
       <c r="AT4">
-        <v>4.4940188329628587E-2</v>
+        <v>0.04494018832962859</v>
       </c>
       <c r="AU4">
-        <v>1.2968066405305191E-2</v>
+        <v>0.01296806640530519</v>
       </c>
       <c r="AV4">
-        <v>1.7669531737001549E-2</v>
+        <v>0.01766953173700155</v>
       </c>
       <c r="AW4">
-        <v>3.0476645310563731E-2</v>
+        <v>0.03047664531056373</v>
       </c>
       <c r="AX4">
-        <v>3.2058686245808338E-3</v>
+        <v>0.003205868624580834</v>
       </c>
       <c r="AY4">
-        <v>2.9639719962346781E-2</v>
+        <v>0.02963971996234678</v>
       </c>
       <c r="AZ4">
-        <v>2.1325330249614648E-2</v>
+        <v>0.02132533024961465</v>
       </c>
       <c r="BA4">
-        <v>1.9237514101737959E-2</v>
+        <v>0.01923751410173796</v>
       </c>
       <c r="BB4">
-        <v>1.325889778812102E-2</v>
+        <v>0.01325889778812102</v>
       </c>
       <c r="BC4">
-        <v>1.18115915281956E-2</v>
+        <v>0.0118115915281956</v>
       </c>
       <c r="BD4">
-        <v>1.044238184689336E-2</v>
+        <v>0.01044238184689336</v>
       </c>
       <c r="BE4">
-        <v>1.6594349538904641E-2</v>
+        <v>0.01659434953890464</v>
       </c>
       <c r="BF4">
-        <v>4.0578542720871393E-2</v>
+        <v>0.04057854272087139</v>
       </c>
       <c r="BG4">
-        <v>1.8896288548702091E-2</v>
+        <v>0.01889628854870209</v>
       </c>
       <c r="BH4">
-        <v>1.3959805126195881E-2</v>
+        <v>0.01395980512619588</v>
       </c>
       <c r="BI4">
-        <v>4.6375136498490819E-3</v>
+        <v>0.004637513649849082</v>
       </c>
       <c r="BJ4">
-        <v>1.51151368594463E-2</v>
+        <v>0.0151151368594463</v>
       </c>
       <c r="BK4">
-        <v>2.5478397359681201E-2</v>
+        <v>0.0254783973596812</v>
       </c>
       <c r="BL4">
-        <v>1.9446462550717591E-2</v>
+        <v>0.01944646255071759</v>
       </c>
       <c r="BM4">
-        <v>7.9981353331343014E-3</v>
+        <v>0.007998135333134301</v>
       </c>
       <c r="BN4">
-        <v>1.8714963328681451E-2</v>
+        <v>0.01871496332868145</v>
       </c>
       <c r="BO4">
-        <v>1.899734013931615E-2</v>
+        <v>0.01899734013931615</v>
       </c>
       <c r="BP4">
-        <v>2.298069062160785E-2</v>
+        <v>0.02298069062160785</v>
       </c>
       <c r="BQ4">
-        <v>9.2622625306681E-3</v>
+        <v>0.0092622625306681</v>
       </c>
       <c r="BR4">
-        <v>9.6927389014573439E-3</v>
+        <v>0.009692738901457344</v>
       </c>
       <c r="BS4">
-        <v>5.6840727862768392E-2</v>
+        <v>0.05684072786276839</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:71">
       <c r="A5" s="2">
-        <v>46024.496934733797</v>
+        <v>46024.4969347338</v>
       </c>
       <c r="B5">
-        <v>6.6881639794375404E-4</v>
+        <v>0.000668816397943754</v>
       </c>
       <c r="C5">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="D5">
-        <v>6.4203455240689732E-3</v>
+        <v>0.006420345524068973</v>
       </c>
       <c r="E5">
-        <v>7.6132421687181541E-3</v>
+        <v>0.007613242168718154</v>
       </c>
       <c r="F5">
-        <v>-7.4379856321042451E-3</v>
+        <v>-0.007437985632104245</v>
       </c>
       <c r="G5">
-        <v>7.0863806231596937E-3</v>
+        <v>0.007086380623159694</v>
       </c>
       <c r="H5">
-        <v>6.2360095869605564E-3</v>
+        <v>0.006236009586960556</v>
       </c>
       <c r="I5">
-        <v>7.2333665926382663E-3</v>
+        <v>0.007233366592638266</v>
       </c>
       <c r="J5">
-        <v>2.0229133138318759E-5</v>
+        <v>2.022913313831876E-05</v>
       </c>
       <c r="K5">
-        <v>0.99641138197973089</v>
+        <v>0.9964113819797309</v>
       </c>
       <c r="L5">
         <v>0.1014419278001957</v>
@@ -1540,207 +1497,207 @@
         <v>499</v>
       </c>
       <c r="P5">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="Q5">
-        <v>5.8195674943511506E-3</v>
+        <v>0.005819567494351151</v>
       </c>
       <c r="R5">
-        <v>2.9097837471755749E-3</v>
+        <v>0.002909783747175575</v>
       </c>
       <c r="S5">
-        <v>9.2210152628536771E-3</v>
+        <v>0.009221015262853677</v>
       </c>
       <c r="T5">
-        <v>4.6608886787488868E-2</v>
+        <v>0.04660888678748887</v>
       </c>
       <c r="U5">
-        <v>1.1386325536098311E-2</v>
+        <v>0.01138632553609831</v>
       </c>
       <c r="V5">
-        <v>1.1543797346427661E-2</v>
+        <v>0.01154379734642766</v>
       </c>
       <c r="W5">
-        <v>3.2068795902842902E-2</v>
+        <v>0.0320687959028429</v>
       </c>
       <c r="X5">
-        <v>1.323432909910487E-2</v>
+        <v>0.01323432909910487</v>
       </c>
       <c r="Y5">
-        <v>1.6583473149152581E-2</v>
+        <v>0.01658347314915258</v>
       </c>
       <c r="Z5">
-        <v>4.4942630253139139E-2</v>
+        <v>0.04494263025313914</v>
       </c>
       <c r="AA5">
-        <v>1.769514936707876E-2</v>
+        <v>0.01769514936707876</v>
       </c>
       <c r="AB5">
-        <v>1.272953127767971E-2</v>
+        <v>0.01272953127767971</v>
       </c>
       <c r="AC5">
-        <v>1.349305481473259E-2</v>
+        <v>0.01349305481473259</v>
       </c>
       <c r="AD5">
-        <v>6.5269716748636089E-3</v>
+        <v>0.006526971674863609</v>
       </c>
       <c r="AE5">
-        <v>1.1644059263182479E-2</v>
+        <v>0.01164405926318248</v>
       </c>
       <c r="AF5">
-        <v>1.2168155629391639E-2</v>
+        <v>0.01216815562939164</v>
       </c>
       <c r="AG5">
-        <v>3.198899770518006E-3</v>
+        <v>0.003198899770518006</v>
       </c>
       <c r="AH5">
-        <v>1.2758413267071561E-2</v>
+        <v>0.01275841326707156</v>
       </c>
       <c r="AI5">
-        <v>3.9284697417508202E-2</v>
+        <v>0.0392846974175082</v>
       </c>
       <c r="AJ5">
-        <v>1.031790820221439E-2</v>
+        <v>0.01031790820221439</v>
       </c>
       <c r="AK5">
-        <v>9.0139622061824794E-3</v>
+        <v>0.009013962206182479</v>
       </c>
       <c r="AL5">
-        <v>1.597705913339852E-2</v>
+        <v>0.01597705913339852</v>
       </c>
       <c r="AM5">
-        <v>1.799099277804081E-2</v>
+        <v>0.01799099277804081</v>
       </c>
       <c r="AN5">
-        <v>1.2653556585449401E-2</v>
+        <v>0.0126535565854494</v>
       </c>
       <c r="AO5">
-        <v>1.9073445616853209E-2</v>
+        <v>0.01907344561685321</v>
       </c>
       <c r="AP5">
-        <v>3.8907001368326123E-2</v>
+        <v>0.03890700136832612</v>
       </c>
       <c r="AQ5">
-        <v>2.1241487369177948E-2</v>
+        <v>0.02124148736917795</v>
       </c>
       <c r="AR5">
-        <v>1.6387603611972241E-2</v>
+        <v>0.01638760361197224</v>
       </c>
       <c r="AS5">
-        <v>1.8400721616112989E-2</v>
+        <v>0.01840072161611299</v>
       </c>
       <c r="AT5">
-        <v>4.4940188329628587E-2</v>
+        <v>0.04494018832962859</v>
       </c>
       <c r="AU5">
-        <v>1.2968066405305191E-2</v>
+        <v>0.01296806640530519</v>
       </c>
       <c r="AV5">
-        <v>1.7669531737001549E-2</v>
+        <v>0.01766953173700155</v>
       </c>
       <c r="AW5">
-        <v>3.0476645310563731E-2</v>
+        <v>0.03047664531056373</v>
       </c>
       <c r="AX5">
-        <v>3.2058686245808338E-3</v>
+        <v>0.003205868624580834</v>
       </c>
       <c r="AY5">
-        <v>2.9639719962346781E-2</v>
+        <v>0.02963971996234678</v>
       </c>
       <c r="AZ5">
-        <v>2.1325330249614648E-2</v>
+        <v>0.02132533024961465</v>
       </c>
       <c r="BA5">
-        <v>1.9237514101737959E-2</v>
+        <v>0.01923751410173796</v>
       </c>
       <c r="BB5">
-        <v>1.325889778812102E-2</v>
+        <v>0.01325889778812102</v>
       </c>
       <c r="BC5">
-        <v>1.18115915281956E-2</v>
+        <v>0.0118115915281956</v>
       </c>
       <c r="BD5">
-        <v>1.044238184689336E-2</v>
+        <v>0.01044238184689336</v>
       </c>
       <c r="BE5">
-        <v>1.6594349538904641E-2</v>
+        <v>0.01659434953890464</v>
       </c>
       <c r="BF5">
-        <v>4.0578542720871393E-2</v>
+        <v>0.04057854272087139</v>
       </c>
       <c r="BG5">
-        <v>1.8896288548702091E-2</v>
+        <v>0.01889628854870209</v>
       </c>
       <c r="BH5">
-        <v>1.3959805126195881E-2</v>
+        <v>0.01395980512619588</v>
       </c>
       <c r="BI5">
-        <v>4.6375136498490819E-3</v>
+        <v>0.004637513649849082</v>
       </c>
       <c r="BJ5">
-        <v>1.51151368594463E-2</v>
+        <v>0.0151151368594463</v>
       </c>
       <c r="BK5">
-        <v>2.5478397359681201E-2</v>
+        <v>0.0254783973596812</v>
       </c>
       <c r="BL5">
-        <v>1.9446462550717591E-2</v>
+        <v>0.01944646255071759</v>
       </c>
       <c r="BM5">
-        <v>7.9981353331343014E-3</v>
+        <v>0.007998135333134301</v>
       </c>
       <c r="BN5">
-        <v>1.8714963328681451E-2</v>
+        <v>0.01871496332868145</v>
       </c>
       <c r="BO5">
-        <v>1.899734013931615E-2</v>
+        <v>0.01899734013931615</v>
       </c>
       <c r="BP5">
-        <v>2.298069062160785E-2</v>
+        <v>0.02298069062160785</v>
       </c>
       <c r="BQ5">
-        <v>9.2622625306681E-3</v>
+        <v>0.0092622625306681</v>
       </c>
       <c r="BR5">
-        <v>9.6927389014573439E-3</v>
+        <v>0.009692738901457344</v>
       </c>
       <c r="BS5">
-        <v>5.6840727862768392E-2</v>
+        <v>0.05684072786276839</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:71">
       <c r="A6" s="2">
-        <v>46024.506517751513</v>
+        <v>46024.50651775463</v>
       </c>
       <c r="B6">
-        <v>6.6881639794375405E-2</v>
+        <v>0.06688163979437541</v>
       </c>
       <c r="C6">
-        <v>0.29097837471755761</v>
+        <v>0.2909783747175576</v>
       </c>
       <c r="D6">
-        <v>0.64203455240689733</v>
+        <v>0.6420345524068973</v>
       </c>
       <c r="E6">
         <v>0.7613242168718154</v>
       </c>
       <c r="F6">
-        <v>-0.74379856321042448</v>
+        <v>-0.7437985632104245</v>
       </c>
       <c r="G6">
-        <v>0.70863806231596937</v>
+        <v>0.7086380623159694</v>
       </c>
       <c r="H6">
-        <v>0.61465561519133027</v>
+        <v>0.6146556151913303</v>
       </c>
       <c r="I6">
-        <v>0.71389095701471994</v>
+        <v>0.7138909570147199</v>
       </c>
       <c r="J6">
-        <v>2.0229133138318762E-3</v>
+        <v>0.002022913313831876</v>
       </c>
       <c r="K6">
-        <v>0.99641138197973089</v>
+        <v>0.9964113819797309</v>
       </c>
       <c r="L6">
         <v>0.1014419278001957</v>
@@ -1755,19 +1712,19 @@
         <v>499</v>
       </c>
       <c r="P6">
-        <v>0.29097837471755761</v>
+        <v>0.2909783747175576</v>
       </c>
       <c r="Q6">
-        <v>0.58195674943511511</v>
+        <v>0.5819567494351151</v>
       </c>
       <c r="R6">
-        <v>0.29097837471755761</v>
+        <v>0.2909783747175576</v>
       </c>
       <c r="S6">
-        <v>0.92210152628536768</v>
+        <v>0.9221015262853677</v>
       </c>
       <c r="T6">
-        <v>4.6608886787488872</v>
+        <v>4.660888678748887</v>
       </c>
       <c r="U6">
         <v>1.138632553609831</v>
@@ -1776,94 +1733,94 @@
         <v>1.154379734642766</v>
       </c>
       <c r="W6">
-        <v>3.2068795902842901</v>
+        <v>3.20687959028429</v>
       </c>
       <c r="X6">
-        <v>1.3234329099104869</v>
+        <v>1.323432909910487</v>
       </c>
       <c r="Y6">
-        <v>1.6583473149152581</v>
+        <v>1.658347314915258</v>
       </c>
       <c r="Z6">
-        <v>4.4942630253139138</v>
+        <v>4.494263025313914</v>
       </c>
       <c r="AA6">
         <v>1.769514936707876</v>
       </c>
       <c r="AB6">
-        <v>1.2729531277679711</v>
+        <v>1.272953127767971</v>
       </c>
       <c r="AC6">
         <v>1.349305481473259</v>
       </c>
       <c r="AD6">
-        <v>0.65269716748636086</v>
+        <v>0.6526971674863609</v>
       </c>
       <c r="AE6">
         <v>1.164405926318248</v>
       </c>
       <c r="AF6">
-        <v>1.2168155629391639</v>
+        <v>1.216815562939164</v>
       </c>
       <c r="AG6">
-        <v>0.31988997705180061</v>
+        <v>0.3198899770518006</v>
       </c>
       <c r="AH6">
         <v>1.275841326707156</v>
       </c>
       <c r="AI6">
-        <v>3.9284697417508201</v>
+        <v>3.92846974175082</v>
       </c>
       <c r="AJ6">
         <v>1.031790820221439</v>
       </c>
       <c r="AK6">
-        <v>0.90139622061824798</v>
+        <v>0.901396220618248</v>
       </c>
       <c r="AL6">
-        <v>1.5977059133398519</v>
+        <v>1.597705913339852</v>
       </c>
       <c r="AM6">
-        <v>1.7990992778040811</v>
+        <v>1.799099277804081</v>
       </c>
       <c r="AN6">
-        <v>1.2653556585449399</v>
+        <v>1.26535565854494</v>
       </c>
       <c r="AO6">
-        <v>1.9073445616853211</v>
+        <v>1.907344561685321</v>
       </c>
       <c r="AP6">
-        <v>3.8907001368326122</v>
+        <v>3.890700136832612</v>
       </c>
       <c r="AQ6">
-        <v>2.1241487369177952</v>
+        <v>2.124148736917795</v>
       </c>
       <c r="AR6">
-        <v>1.6387603611972239</v>
+        <v>1.638760361197224</v>
       </c>
       <c r="AS6">
-        <v>1.8400721616112989</v>
+        <v>1.840072161611299</v>
       </c>
       <c r="AT6">
-        <v>4.4940188329628592</v>
+        <v>4.494018832962859</v>
       </c>
       <c r="AU6">
         <v>1.296806640530519</v>
       </c>
       <c r="AV6">
-        <v>1.7669531737001549</v>
+        <v>1.766953173700155</v>
       </c>
       <c r="AW6">
-        <v>3.0476645310563728</v>
+        <v>3.047664531056373</v>
       </c>
       <c r="AX6">
-        <v>0.32058686245808338</v>
+        <v>0.3205868624580834</v>
       </c>
       <c r="AY6">
-        <v>2.9639719962346782</v>
+        <v>2.963971996234678</v>
       </c>
       <c r="AZ6">
-        <v>2.1325330249614649</v>
+        <v>2.132533024961465</v>
       </c>
       <c r="BA6">
         <v>1.923751410173796</v>
@@ -1881,46 +1838,476 @@
         <v>1.659434953890464</v>
       </c>
       <c r="BF6">
-        <v>4.0578542720871376</v>
+        <v>4.057854272087138</v>
       </c>
       <c r="BG6">
-        <v>1.8896288548702089</v>
+        <v>1.889628854870209</v>
       </c>
       <c r="BH6">
-        <v>1.3959805126195881</v>
+        <v>1.395980512619588</v>
       </c>
       <c r="BI6">
-        <v>0.46375136498490821</v>
+        <v>0.4637513649849082</v>
       </c>
       <c r="BJ6">
-        <v>1.5115136859446301</v>
+        <v>1.51151368594463</v>
       </c>
       <c r="BK6">
         <v>2.54783973596812</v>
       </c>
       <c r="BL6">
-        <v>1.9446462550717589</v>
+        <v>1.944646255071759</v>
       </c>
       <c r="BM6">
-        <v>0.79981353331343019</v>
+        <v>0.7998135333134302</v>
       </c>
       <c r="BN6">
-        <v>1.8714963328681451</v>
+        <v>1.871496332868145</v>
       </c>
       <c r="BO6">
         <v>1.899734013931615</v>
       </c>
       <c r="BP6">
-        <v>2.2980690621607849</v>
+        <v>2.298069062160785</v>
       </c>
       <c r="BQ6">
-        <v>0.92622625306680995</v>
+        <v>0.9262262530668099</v>
       </c>
       <c r="BR6">
         <v>0.9692738901457344</v>
       </c>
       <c r="BS6">
-        <v>5.6840727862768388</v>
+        <v>5.684072786276839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="2">
+        <v>46024.53989163195</v>
+      </c>
+      <c r="B7">
+        <v>0.06688163979437541</v>
+      </c>
+      <c r="C7">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="D7">
+        <v>0.6420345524068973</v>
+      </c>
+      <c r="E7">
+        <v>0.7613242168718154</v>
+      </c>
+      <c r="F7">
+        <v>-0.7437985632104245</v>
+      </c>
+      <c r="G7">
+        <v>0.7086380623159694</v>
+      </c>
+      <c r="H7">
+        <v>0.5940076971177148</v>
+      </c>
+      <c r="I7">
+        <v>0.6947542725009775</v>
+      </c>
+      <c r="J7">
+        <v>0.002022913313831876</v>
+      </c>
+      <c r="K7">
+        <v>0.9964113819797309</v>
+      </c>
+      <c r="L7">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M7">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>499</v>
+      </c>
+      <c r="P7">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="Q7">
+        <v>0.5819567494351151</v>
+      </c>
+      <c r="R7">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="S7">
+        <v>0.9221015262853677</v>
+      </c>
+      <c r="T7">
+        <v>4.660888678748887</v>
+      </c>
+      <c r="U7">
+        <v>1.138632553609831</v>
+      </c>
+      <c r="V7">
+        <v>1.154379734642766</v>
+      </c>
+      <c r="W7">
+        <v>3.20687959028429</v>
+      </c>
+      <c r="X7">
+        <v>1.323432909910487</v>
+      </c>
+      <c r="Y7">
+        <v>1.658347314915258</v>
+      </c>
+      <c r="Z7">
+        <v>4.494263025313914</v>
+      </c>
+      <c r="AA7">
+        <v>1.769514936707876</v>
+      </c>
+      <c r="AB7">
+        <v>1.272953127767971</v>
+      </c>
+      <c r="AC7">
+        <v>1.349305481473259</v>
+      </c>
+      <c r="AD7">
+        <v>0.6526971674863609</v>
+      </c>
+      <c r="AE7">
+        <v>1.164405926318248</v>
+      </c>
+      <c r="AF7">
+        <v>1.216815562939164</v>
+      </c>
+      <c r="AG7">
+        <v>0.3198899770518006</v>
+      </c>
+      <c r="AH7">
+        <v>1.275841326707156</v>
+      </c>
+      <c r="AI7">
+        <v>3.92846974175082</v>
+      </c>
+      <c r="AJ7">
+        <v>1.031790820221439</v>
+      </c>
+      <c r="AK7">
+        <v>0.901396220618248</v>
+      </c>
+      <c r="AL7">
+        <v>1.597705913339852</v>
+      </c>
+      <c r="AM7">
+        <v>1.799099277804081</v>
+      </c>
+      <c r="AN7">
+        <v>1.26535565854494</v>
+      </c>
+      <c r="AO7">
+        <v>1.907344561685321</v>
+      </c>
+      <c r="AP7">
+        <v>3.890700136832612</v>
+      </c>
+      <c r="AQ7">
+        <v>2.124148736917795</v>
+      </c>
+      <c r="AR7">
+        <v>1.638760361197224</v>
+      </c>
+      <c r="AS7">
+        <v>1.840072161611299</v>
+      </c>
+      <c r="AT7">
+        <v>4.494018832962859</v>
+      </c>
+      <c r="AU7">
+        <v>1.296806640530519</v>
+      </c>
+      <c r="AV7">
+        <v>1.766953173700155</v>
+      </c>
+      <c r="AW7">
+        <v>3.047664531056373</v>
+      </c>
+      <c r="AX7">
+        <v>0.3205868624580834</v>
+      </c>
+      <c r="AY7">
+        <v>2.963971996234678</v>
+      </c>
+      <c r="AZ7">
+        <v>2.132533024961465</v>
+      </c>
+      <c r="BA7">
+        <v>1.923751410173796</v>
+      </c>
+      <c r="BB7">
+        <v>1.325889778812102</v>
+      </c>
+      <c r="BC7">
+        <v>1.18115915281956</v>
+      </c>
+      <c r="BD7">
+        <v>1.044238184689336</v>
+      </c>
+      <c r="BE7">
+        <v>1.659434953890464</v>
+      </c>
+      <c r="BF7">
+        <v>4.057854272087138</v>
+      </c>
+      <c r="BG7">
+        <v>1.889628854870209</v>
+      </c>
+      <c r="BH7">
+        <v>1.395980512619588</v>
+      </c>
+      <c r="BI7">
+        <v>0.4637513649849082</v>
+      </c>
+      <c r="BJ7">
+        <v>1.51151368594463</v>
+      </c>
+      <c r="BK7">
+        <v>2.54783973596812</v>
+      </c>
+      <c r="BL7">
+        <v>1.944646255071759</v>
+      </c>
+      <c r="BM7">
+        <v>0.7998135333134302</v>
+      </c>
+      <c r="BN7">
+        <v>1.871496332868145</v>
+      </c>
+      <c r="BO7">
+        <v>1.899734013931615</v>
+      </c>
+      <c r="BP7">
+        <v>2.298069062160785</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9262262530668099</v>
+      </c>
+      <c r="BR7">
+        <v>0.9692738901457344</v>
+      </c>
+      <c r="BS7">
+        <v>5.684072786276839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
+      <c r="A8" s="2">
+        <v>46024.54138574146</v>
+      </c>
+      <c r="B8">
+        <v>0.06688163979437541</v>
+      </c>
+      <c r="C8">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="D8">
+        <v>0.6420345524068973</v>
+      </c>
+      <c r="E8">
+        <v>0.7613242168718154</v>
+      </c>
+      <c r="F8">
+        <v>-0.7437985632104245</v>
+      </c>
+      <c r="G8">
+        <v>0.7086380623159694</v>
+      </c>
+      <c r="H8">
+        <v>0.6220224105020412</v>
+      </c>
+      <c r="I8">
+        <v>0.7196229685204784</v>
+      </c>
+      <c r="J8">
+        <v>0.002022913313831876</v>
+      </c>
+      <c r="K8">
+        <v>0.9964113819797309</v>
+      </c>
+      <c r="L8">
+        <v>0.1014419278001957</v>
+      </c>
+      <c r="M8">
+        <v>0.7501060782683735</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>499</v>
+      </c>
+      <c r="P8">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="Q8">
+        <v>0.5819567494351151</v>
+      </c>
+      <c r="R8">
+        <v>0.2909783747175576</v>
+      </c>
+      <c r="S8">
+        <v>0.9221015262853677</v>
+      </c>
+      <c r="T8">
+        <v>4.660888678748887</v>
+      </c>
+      <c r="U8">
+        <v>1.138632553609831</v>
+      </c>
+      <c r="V8">
+        <v>1.154379734642766</v>
+      </c>
+      <c r="W8">
+        <v>3.20687959028429</v>
+      </c>
+      <c r="X8">
+        <v>1.323432909910487</v>
+      </c>
+      <c r="Y8">
+        <v>1.658347314915258</v>
+      </c>
+      <c r="Z8">
+        <v>4.494263025313914</v>
+      </c>
+      <c r="AA8">
+        <v>1.769514936707876</v>
+      </c>
+      <c r="AB8">
+        <v>1.272953127767971</v>
+      </c>
+      <c r="AC8">
+        <v>1.349305481473259</v>
+      </c>
+      <c r="AD8">
+        <v>0.6526971674863609</v>
+      </c>
+      <c r="AE8">
+        <v>1.164405926318248</v>
+      </c>
+      <c r="AF8">
+        <v>1.216815562939164</v>
+      </c>
+      <c r="AG8">
+        <v>0.3198899770518006</v>
+      </c>
+      <c r="AH8">
+        <v>1.275841326707156</v>
+      </c>
+      <c r="AI8">
+        <v>3.92846974175082</v>
+      </c>
+      <c r="AJ8">
+        <v>1.031790820221439</v>
+      </c>
+      <c r="AK8">
+        <v>0.901396220618248</v>
+      </c>
+      <c r="AL8">
+        <v>1.597705913339852</v>
+      </c>
+      <c r="AM8">
+        <v>1.799099277804081</v>
+      </c>
+      <c r="AN8">
+        <v>1.26535565854494</v>
+      </c>
+      <c r="AO8">
+        <v>1.907344561685321</v>
+      </c>
+      <c r="AP8">
+        <v>3.890700136832612</v>
+      </c>
+      <c r="AQ8">
+        <v>2.124148736917795</v>
+      </c>
+      <c r="AR8">
+        <v>1.638760361197224</v>
+      </c>
+      <c r="AS8">
+        <v>1.840072161611299</v>
+      </c>
+      <c r="AT8">
+        <v>4.494018832962859</v>
+      </c>
+      <c r="AU8">
+        <v>1.296806640530519</v>
+      </c>
+      <c r="AV8">
+        <v>1.766953173700155</v>
+      </c>
+      <c r="AW8">
+        <v>3.047664531056373</v>
+      </c>
+      <c r="AX8">
+        <v>0.3205868624580834</v>
+      </c>
+      <c r="AY8">
+        <v>2.963971996234678</v>
+      </c>
+      <c r="AZ8">
+        <v>2.132533024961465</v>
+      </c>
+      <c r="BA8">
+        <v>1.923751410173796</v>
+      </c>
+      <c r="BB8">
+        <v>1.325889778812102</v>
+      </c>
+      <c r="BC8">
+        <v>1.18115915281956</v>
+      </c>
+      <c r="BD8">
+        <v>1.044238184689336</v>
+      </c>
+      <c r="BE8">
+        <v>1.659434953890464</v>
+      </c>
+      <c r="BF8">
+        <v>4.057854272087138</v>
+      </c>
+      <c r="BG8">
+        <v>1.889628854870209</v>
+      </c>
+      <c r="BH8">
+        <v>1.395980512619588</v>
+      </c>
+      <c r="BI8">
+        <v>0.4637513649849082</v>
+      </c>
+      <c r="BJ8">
+        <v>1.51151368594463</v>
+      </c>
+      <c r="BK8">
+        <v>2.54783973596812</v>
+      </c>
+      <c r="BL8">
+        <v>1.944646255071759</v>
+      </c>
+      <c r="BM8">
+        <v>0.7998135333134302</v>
+      </c>
+      <c r="BN8">
+        <v>1.871496332868145</v>
+      </c>
+      <c r="BO8">
+        <v>1.899734013931615</v>
+      </c>
+      <c r="BP8">
+        <v>2.298069062160785</v>
+      </c>
+      <c r="BQ8">
+        <v>0.9262262530668099</v>
+      </c>
+      <c r="BR8">
+        <v>0.9692738901457344</v>
+      </c>
+      <c r="BS8">
+        <v>5.684072786276839</v>
       </c>
     </row>
   </sheetData>
